--- a/biology/Botanique/Acineta_barkeri/Acineta_barkeri.xlsx
+++ b/biology/Botanique/Acineta_barkeri/Acineta_barkeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acineta barkeri est une espèce de plantes à fleurs de la famille des Orchidaceae. C'est une orchidée épiphyte originaire du Mexique et du Guatemala.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Peristeria barkeri Bateman (1838) (Basionyme)
 Acineta barkeri var. aurantiaca Lem. (1855)</t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Forêts d'altitude, entre 1 000  et   2 000 m dans les états de Chiapas et d'Oaxaca au Mexique et au Guatemala.
 </t>
@@ -573,7 +589,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Peristeria barkeri, James Bateman, 1842
